--- a/data_year/zb/公共管理、社会保障及其他/工会组织情况.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/工会组织情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10361.5</v>
+        <v>23996.5</v>
       </c>
       <c r="C2" t="n">
-        <v>3917.3</v>
+        <v>8871.5</v>
       </c>
       <c r="D2" t="n">
-        <v>4534.5</v>
+        <v>9288.1</v>
       </c>
       <c r="E2" t="n">
-        <v>11472.1</v>
+        <v>25345.4</v>
       </c>
       <c r="F2" t="n">
-        <v>48.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>85.90000000000001</v>
+        <v>197.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12152.3</v>
+        <v>25885.1</v>
       </c>
       <c r="C3" t="n">
-        <v>4696.6</v>
+        <v>9763.6</v>
       </c>
       <c r="D3" t="n">
-        <v>5087.9</v>
+        <v>10211.2</v>
       </c>
       <c r="E3" t="n">
-        <v>12997</v>
+        <v>27304.7</v>
       </c>
       <c r="F3" t="n">
-        <v>55.4</v>
+        <v>99.8</v>
       </c>
       <c r="G3" t="n">
-        <v>153.8</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13397.8</v>
+        <v>28021.3</v>
       </c>
       <c r="C4" t="n">
-        <v>4665.2</v>
+        <v>10611</v>
       </c>
       <c r="D4" t="n">
-        <v>5157.6</v>
+        <v>11014.5</v>
       </c>
       <c r="E4" t="n">
-        <v>14461.5</v>
+        <v>29371.5</v>
       </c>
       <c r="F4" t="n">
-        <v>47.2</v>
+        <v>107.9</v>
       </c>
       <c r="G4" t="n">
-        <v>171.3</v>
+        <v>266.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12340.5</v>
+        <v>28786.9</v>
       </c>
       <c r="C5" t="n">
-        <v>4601.2</v>
+        <v>10886</v>
       </c>
       <c r="D5" t="n">
-        <v>5079.3</v>
+        <v>11227.6</v>
       </c>
       <c r="E5" t="n">
-        <v>13301.6</v>
+        <v>29946.2</v>
       </c>
       <c r="F5" t="n">
-        <v>46.5</v>
+        <v>115.6</v>
       </c>
       <c r="G5" t="n">
-        <v>90.59999999999999</v>
+        <v>276.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13694.9</v>
+        <v>28811.8</v>
       </c>
       <c r="C6" t="n">
-        <v>5135.3</v>
+        <v>10977.7</v>
       </c>
       <c r="D6" t="n">
-        <v>5502.6</v>
+        <v>11299.4</v>
       </c>
       <c r="E6" t="n">
-        <v>14436.7</v>
+        <v>29930.9</v>
       </c>
       <c r="F6" t="n">
-        <v>45.6</v>
+        <v>115.5</v>
       </c>
       <c r="G6" t="n">
-        <v>102</v>
+        <v>278.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15029.4</v>
+        <v>29546</v>
       </c>
       <c r="C7" t="n">
-        <v>5574.8</v>
+        <v>11287.7</v>
       </c>
       <c r="D7" t="n">
-        <v>6016.3</v>
+        <v>11589.2</v>
       </c>
       <c r="E7" t="n">
-        <v>15985.3</v>
+        <v>30707.6</v>
       </c>
       <c r="F7" t="n">
-        <v>47.7</v>
+        <v>111.4</v>
       </c>
       <c r="G7" t="n">
-        <v>117.4</v>
+        <v>280.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16994.2</v>
+        <v>30288.1</v>
       </c>
       <c r="C8" t="n">
-        <v>6177.8</v>
+        <v>11520</v>
       </c>
       <c r="D8" t="n">
-        <v>6719.3</v>
+        <v>11806.7</v>
       </c>
       <c r="E8" t="n">
-        <v>18143.6</v>
+        <v>31428.6</v>
       </c>
       <c r="F8" t="n">
-        <v>54.3</v>
+        <v>113</v>
       </c>
       <c r="G8" t="n">
-        <v>132.4</v>
+        <v>282.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19329</v>
+        <v>30311.2</v>
       </c>
       <c r="C9" t="n">
-        <v>7042.2</v>
+        <v>11604.8</v>
       </c>
       <c r="D9" t="n">
-        <v>7494.5</v>
+        <v>11884.5</v>
       </c>
       <c r="E9" t="n">
-        <v>20452.4</v>
+        <v>31430.3</v>
       </c>
       <c r="F9" t="n">
-        <v>60.2</v>
+        <v>108.9</v>
       </c>
       <c r="G9" t="n">
-        <v>150.8</v>
+        <v>280.8796</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21217.1</v>
+        <v>29476.5</v>
       </c>
       <c r="C10" t="n">
-        <v>7773.8</v>
+        <v>11351.8</v>
       </c>
       <c r="D10" t="n">
-        <v>8168.8</v>
+        <v>11647.9</v>
       </c>
       <c r="E10" t="n">
-        <v>22487.5</v>
+        <v>30582.9</v>
       </c>
       <c r="F10" t="n">
-        <v>70.5</v>
+        <v>102.2</v>
       </c>
       <c r="G10" t="n">
-        <v>172.5</v>
+        <v>273.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22634.4</v>
+        <v>28317.8</v>
       </c>
       <c r="C11" t="n">
-        <v>8248.4</v>
+        <v>10995.3</v>
       </c>
       <c r="D11" t="n">
-        <v>8652.6</v>
+        <v>11307.8</v>
       </c>
       <c r="E11" t="n">
-        <v>24535.3</v>
+        <v>29412.8</v>
       </c>
       <c r="F11" t="n">
-        <v>74.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>184.5</v>
+        <v>261.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23996.5</v>
+        <v>27189.7986</v>
       </c>
       <c r="C12" t="n">
-        <v>8871.5</v>
+        <v>10600.3625</v>
       </c>
       <c r="D12" t="n">
-        <v>9288.1</v>
+        <v>10923.1493</v>
       </c>
       <c r="E12" t="n">
-        <v>25345.4</v>
+        <v>28291.0715</v>
       </c>
       <c r="F12" t="n">
-        <v>86.40000000000001</v>
+        <v>90.2109</v>
       </c>
       <c r="G12" t="n">
-        <v>197.6</v>
+        <v>247.556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25885.1</v>
+        <v>25491.8191</v>
       </c>
       <c r="C13" t="n">
-        <v>9763.6</v>
+        <v>9941.198700000001</v>
       </c>
       <c r="D13" t="n">
-        <v>10211.2</v>
+        <v>10311.2202</v>
       </c>
       <c r="E13" t="n">
-        <v>27304.7</v>
+        <v>26595.0348</v>
       </c>
       <c r="F13" t="n">
-        <v>99.8</v>
+        <v>82.93899999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>28021.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10611</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11014.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>29371.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>107.9</v>
-      </c>
-      <c r="G14" t="n">
-        <v>266.3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>28786.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10886</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11227.6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>29946.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>115.6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>276.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>28811.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10977.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11299.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>29930.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>115.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>278.1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>29546</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11287.7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11589.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30707.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>111.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>280.6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>30288.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11520</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11806.7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>31428.6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>113</v>
-      </c>
-      <c r="G18" t="n">
-        <v>282.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>30311.2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11604.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11884.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>31430.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="G19" t="n">
-        <v>280.8796</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>29476.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11351.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11647.9</v>
-      </c>
-      <c r="E20" t="n">
-        <v>30582.9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>273.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>28317.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>10995.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11307.8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>29412.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="G21" t="n">
-        <v>261.1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>27189.7986</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10600.3625</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10923.1493</v>
-      </c>
-      <c r="E22" t="n">
-        <v>28291.0715</v>
-      </c>
-      <c r="F22" t="n">
-        <v>90.2109</v>
-      </c>
-      <c r="G22" t="n">
-        <v>247.556</v>
+        <v>221.3946</v>
       </c>
     </row>
   </sheetData>
